--- a/data_table/MainTaskStage.xlsx
+++ b/data_table/MainTaskStage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -36,6 +36,9 @@
     <t>describe</t>
   </si>
   <si>
+    <t>battleId</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -60,34 +63,40 @@
     <t>描述</t>
   </si>
   <si>
-    <t>第 1 关卡</t>
-  </si>
-  <si>
-    <t>第 1 关卡描述</t>
-  </si>
-  <si>
-    <t>第 2 关卡</t>
-  </si>
-  <si>
-    <t>第 2 关卡描述</t>
-  </si>
-  <si>
-    <t>第 3 关卡</t>
-  </si>
-  <si>
-    <t>第 3 关卡描述</t>
-  </si>
-  <si>
-    <t>第 4 关卡</t>
-  </si>
-  <si>
-    <t>第 4 关卡描述</t>
-  </si>
-  <si>
-    <t>第 5 关卡</t>
-  </si>
-  <si>
-    <t>第 5 关卡描述</t>
+    <t>战斗id</t>
+  </si>
+  <si>
+    <t>主线 1-1</t>
+  </si>
+  <si>
+    <t>主线 1-2</t>
+  </si>
+  <si>
+    <t>主线 1-3</t>
+  </si>
+  <si>
+    <t>主线 1-4</t>
+  </si>
+  <si>
+    <t>主线 1-5</t>
+  </si>
+  <si>
+    <t>主线 2-1</t>
+  </si>
+  <si>
+    <t>主线 2-2</t>
+  </si>
+  <si>
+    <t>主线 2-3</t>
+  </si>
+  <si>
+    <t>主线 3-1</t>
+  </si>
+  <si>
+    <t>主线 3-2</t>
+  </si>
+  <si>
+    <t>主线 3-3</t>
   </si>
 </sst>
 </file>
@@ -95,8 +104,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -110,36 +119,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,15 +226,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,29 +249,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,25 +271,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,121 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,30 +452,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,15 +462,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,8 +483,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,17 +528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,20 +1073,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="23.375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1096,48 +1105,57 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:6">
+    <row r="3" ht="93" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1151,13 +1169,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>5001011</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1171,13 +1192,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
         <v>17</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>5001012</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1193,11 +1217,14 @@
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>5001013</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1211,13 +1238,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>5001014</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1231,13 +1261,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>5001015</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:6">
+    <row r="10" customFormat="1" spans="1:7">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1251,13 +1284,16 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>5001021</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:6">
+    <row r="11" customFormat="1" spans="1:7">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1271,13 +1307,16 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>5001022</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:6">
+    <row r="12" customFormat="1" spans="1:7">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1291,13 +1330,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <v>5001023</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:6">
+    <row r="14" customFormat="1" spans="1:7">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1311,13 +1353,16 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>5001031</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:6">
+    <row r="15" customFormat="1" spans="1:7">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1331,13 +1376,16 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>5001032</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:6">
+    <row r="16" customFormat="1" spans="1:7">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1351,10 +1399,13 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16">
+        <v>5001033</v>
       </c>
     </row>
   </sheetData>
